--- a/Habitat_Instant_Mars.xlsx
+++ b/Habitat_Instant_Mars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gille\Documents\TU Delft\00 Master ASM\03 Q3\02 Knoweledge Based engineering\Parapy test\pythonProject\KBE assignment\20240409_Main_branch_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4BA51-3191-4124-B2AB-4AA532313512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2101C-6341-4C5F-8114-C4A876126AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1416" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design Specification" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
